--- a/焦煤/data_input/焦煤288口岸监管区总库存.xlsx
+++ b/焦煤/data_input/焦煤288口岸监管区总库存.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3191"/>
+  <dimension ref="A1:E3195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37146,7 +37146,9 @@
         <v>149962.5</v>
       </c>
       <c r="D3187" t="inlineStr"/>
-      <c r="E3187" t="inlineStr"/>
+      <c r="E3187" t="n">
+        <v>228.2</v>
+      </c>
     </row>
     <row r="3188">
       <c r="A3188" s="2" t="n">
@@ -37166,7 +37168,9 @@
         <v>45951</v>
       </c>
       <c r="B3189" t="inlineStr"/>
-      <c r="C3189" t="inlineStr"/>
+      <c r="C3189" t="n">
+        <v>140208.75</v>
+      </c>
       <c r="D3189" t="n">
         <v>190</v>
       </c>
@@ -37177,7 +37181,9 @@
         <v>45952</v>
       </c>
       <c r="B3190" t="inlineStr"/>
-      <c r="C3190" t="inlineStr"/>
+      <c r="C3190" t="n">
+        <v>134066.25</v>
+      </c>
       <c r="D3190" t="n">
         <v>190</v>
       </c>
@@ -37188,11 +37194,59 @@
         <v>45953</v>
       </c>
       <c r="B3191" t="inlineStr"/>
-      <c r="C3191" t="inlineStr"/>
+      <c r="C3191" t="n">
+        <v>129150</v>
+      </c>
       <c r="D3191" t="n">
         <v>190</v>
       </c>
       <c r="E3191" t="inlineStr"/>
+    </row>
+    <row r="3192">
+      <c r="A3192" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B3192" t="inlineStr"/>
+      <c r="C3192" t="n">
+        <v>124582.5</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>190</v>
+      </c>
+      <c r="E3192" t="inlineStr"/>
+    </row>
+    <row r="3193">
+      <c r="A3193" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B3193" t="inlineStr"/>
+      <c r="C3193" t="n">
+        <v>121218.75</v>
+      </c>
+      <c r="D3193" t="inlineStr"/>
+      <c r="E3193" t="inlineStr"/>
+    </row>
+    <row r="3194">
+      <c r="A3194" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3194" t="inlineStr"/>
+      <c r="C3194" t="inlineStr"/>
+      <c r="D3194" t="n">
+        <v>190</v>
+      </c>
+      <c r="E3194" t="inlineStr"/>
+    </row>
+    <row r="3195">
+      <c r="A3195" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3195" t="inlineStr"/>
+      <c r="C3195" t="inlineStr"/>
+      <c r="D3195" t="n">
+        <v>190</v>
+      </c>
+      <c r="E3195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
